--- a/计算机图书.xlsx
+++ b/计算机图书.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t xml:space="preserve">Java编程思想 </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -83,6 +83,10 @@
   </si>
   <si>
     <t>程序员修炼之道：从小工到专家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试对比</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -437,7 +441,7 @@
   <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -557,7 +561,9 @@
       <c r="C16" s="1"/>
     </row>
     <row r="17" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="1"/>
+      <c r="A17" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
     </row>
